--- a/docs/roadmap.xlsx
+++ b/docs/roadmap.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Сбор команды</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Мозговой штурм, получение идеи и представления  о продукте</t>
   </si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Мини-игра "Обучи ИИ"*</t>
+  </si>
+  <si>
+    <t>Мини-игра "Рисовальня"*</t>
+  </si>
+  <si>
+    <t>Главное меню</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -114,17 +109,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -176,17 +166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -309,68 +288,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="40% — акцент1" xfId="2" builtinId="31"/>
-    <cellStyle name="40% — акцент2" xfId="3" builtinId="35"/>
-    <cellStyle name="40% — акцент4" xfId="4" builtinId="43"/>
-    <cellStyle name="40% — акцент6" xfId="5" builtinId="51"/>
-    <cellStyle name="Нейтральный" xfId="6" builtinId="28"/>
+  <cellStyles count="6">
+    <cellStyle name="40% — акцент1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% — акцент2" xfId="2" builtinId="35"/>
+    <cellStyle name="40% — акцент4" xfId="3" builtinId="43"/>
+    <cellStyle name="40% — акцент6" xfId="4" builtinId="51"/>
+    <cellStyle name="Нейтральный" xfId="5" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,10 +639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:U23"/>
+  <dimension ref="B1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,555 +650,611 @@
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="21" width="10.28515625" customWidth="1"/>
+    <col min="4" max="22" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16">
+      <c r="C2" s="26"/>
+      <c r="D2" s="14">
+        <v>44025</v>
+      </c>
+      <c r="E2" s="15">
         <v>44026</v>
       </c>
-      <c r="E2" s="17">
+      <c r="F2" s="15">
         <v>44027</v>
       </c>
-      <c r="F2" s="17">
+      <c r="G2" s="15">
         <v>44028</v>
       </c>
-      <c r="G2" s="17">
+      <c r="H2" s="15">
         <v>44029</v>
       </c>
-      <c r="H2" s="17">
+      <c r="I2" s="15">
         <v>44030</v>
       </c>
-      <c r="I2" s="17">
+      <c r="J2" s="15">
         <v>44031</v>
       </c>
-      <c r="J2" s="17">
+      <c r="K2" s="15">
         <v>44032</v>
       </c>
-      <c r="K2" s="17">
+      <c r="L2" s="15">
         <v>44033</v>
       </c>
-      <c r="L2" s="17">
+      <c r="M2" s="15">
         <v>44034</v>
       </c>
-      <c r="M2" s="17">
+      <c r="N2" s="15">
         <v>44035</v>
       </c>
-      <c r="N2" s="17">
+      <c r="O2" s="15">
         <v>44036</v>
       </c>
-      <c r="O2" s="17">
+      <c r="P2" s="15">
         <v>44037</v>
       </c>
-      <c r="P2" s="17">
+      <c r="Q2" s="15">
         <v>44038</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="R2" s="15">
         <v>44039</v>
       </c>
-      <c r="R2" s="17">
+      <c r="S2" s="15">
         <v>44040</v>
       </c>
-      <c r="S2" s="17">
+      <c r="T2" s="15">
         <v>44041</v>
       </c>
-      <c r="T2" s="17">
+      <c r="U2" s="15">
         <v>44042</v>
       </c>
-      <c r="U2" s="18">
+      <c r="V2" s="16">
         <v>44043</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="21"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="22"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="20"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="20"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="20"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="20"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="20"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="20"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="23"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="18"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
